--- a/files/questions_original_db.xlsx
+++ b/files/questions_original_db.xlsx
@@ -14,56 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Good answers include</t>
-  </si>
-  <si>
-    <t>RK thoughts</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Patient Stratification</t>
   </si>
   <si>
     <t>Research Strategy</t>
   </si>
   <si>
-    <t>Patient Stratification</t>
-  </si>
-  <si>
     <t>Compbio process detail</t>
   </si>
   <si>
+    <t>Are there specific regions of the protein of the gene POLR3E where mutations occur at a higher frequency?</t>
+  </si>
+  <si>
+    <t>For the gene POLR3E, determine how many of the mutations are pathogenic.</t>
+  </si>
+  <si>
+    <t>For the gene POLR3E, identify indications with significant differential expression in cancer vs normal tissue. Is it overexpressed or underexpressed in tumor tissue?</t>
+  </si>
+  <si>
+    <t>Relationship between dependency scores of JAK1 in DepMapDB.</t>
+  </si>
+  <si>
+    <t>Relationship between expression and mutation status of JAK1.</t>
+  </si>
+  <si>
+    <t>Relationship between JAK1 mutation status and JAK1 dependency.</t>
+  </si>
+  <si>
     <t>Which cell lines have high dependency for the target of interest for the gene POLR3E?</t>
   </si>
   <si>
-    <t>For the gene POLR3E, identify indications with significant differential expression in cancer vs normal tissue. Is it overexpressed or underexpressed in tumor tissue?</t>
-  </si>
-  <si>
-    <t>Are there specific regions of the protein of the gene POLR3E where mutations occur at a higher frequency?</t>
-  </si>
-  <si>
-    <t>For the gene POLR3E, determine how many of the mutations are pathogenic.</t>
-  </si>
-  <si>
     <t>Which mutations in PAS domain for the target protein exhibit high selectivity for the prostate cancer cell lines?</t>
   </si>
   <si>
-    <t>Relationship between dependency scores of JAK1 in DepMapDB.</t>
-  </si>
-  <si>
-    <t>Explains where to look in the Depmap database, or other avenues, and how to search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutation data. Get protein sequence data from protein data bank and identify amino acids in the PAS domain.
-Identify prostate cancer cell lines with mutations in the PAS domain. Report ones that have high selectivity in prostate cancer.
-</t>
-  </si>
-  <si>
-    <t>Shouldn't include the database name, more about the question and then where it finds the answer</t>
+    <t>DB</t>
   </si>
 </sst>
 </file>
@@ -421,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,62 +432,84 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
